--- a/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
+++ b/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001883</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -E</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166009</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -A</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010991</t>
+          <t>001883</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合C</t>
+          <t>中欧新动力混合(LOF) -E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>166009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>中欧新动力混合(LOF) -A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>519993</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>长信增利动态策略混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.17</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>9.83</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>006511</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>博道卓远混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>004236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
+          <t>中欧新动力混合(LOF) -C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>007825</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>博道志远混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>007826</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>博道志远混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004236</t>
+          <t>010991</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧新动力混合(LOF) -C</t>
+          <t>长盛同鑫行业配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>80.03</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.57</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>006512</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>博道卓远混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>80.03</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
+++ b/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5449</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5601</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
+++ b/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2170,4 +2171,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
+++ b/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
+++ b/数据整理/stocks/A股/创业板/300188-美亚柏科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.27</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2660,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8.15</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="5">
@@ -2543,13 +2676,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.73</v>
       </c>
     </row>
